--- a/simulador_mq_v0.3.xlsx
+++ b/simulador_mq_v0.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/yuritelles_petrobras_com_br/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/yuritelles_petrobras_com_br/Documents/Documentos/git_simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{A69756E9-B100-4F2F-9EF1-63B9807E025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96340189-4021-45A0-997F-EBB2FC5610BC}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{A69756E9-B100-4F2F-9EF1-63B9807E025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C05046-4CAA-412E-BC86-57429B0D2641}"/>
   <bookViews>
-    <workbookView xWindow="-48210" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{AAE49CED-2ACB-46D0-84E0-362A500CFA6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{AAE49CED-2ACB-46D0-84E0-362A500CFA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Preço (US$_m3)" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,25 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
-  <si>
-    <t>p0</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Opex</t>
   </si>
@@ -114,9 +96,6 @@
     <t>Receita</t>
   </si>
   <si>
-    <t>Inclui depreciação</t>
-  </si>
-  <si>
     <t>Tributos</t>
   </si>
   <si>
@@ -137,6 +116,24 @@
   <si>
     <t>Dívida</t>
   </si>
+  <si>
+    <t>E&amp;P</t>
+  </si>
+  <si>
+    <t>Refino</t>
+  </si>
+  <si>
+    <t>Pertoquímica</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Fertilizantes</t>
+  </si>
+  <si>
+    <t>Comercialização</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +143,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +167,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,7 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +275,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -288,6 +296,1041 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Volume_add!$M$2:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>41613.257139380097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41917.486089170379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42463.2120791165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43467.748810935482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43956.664094868065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44568.001745658505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45183.736413831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45642.672239340638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46151.308336943614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46086.594201592503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46642.125185254117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47205.043941645461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47578.40907071421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47550.55953089735</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47887.816728432816</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48229.391371569451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46851.422747726865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47255.901355051341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47710.663821630136</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48052.361957946967</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48612.43184207016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49399.13199333605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48560.072881118052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49278.076062902772</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49776.262644665738</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50463.218532070612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5873-40B4-B95B-FD22FF571635}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Volume_add!$N$2:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>41613.257139380097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44094.903152191888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46818.04620515951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50488.915283932583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51100.252934723023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51715.987602895519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52174.923428405156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52683.559526008132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52618.845390657021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53174.376374318635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53737.295130709979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54110.660259778728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54082.810719961868</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54420.067917497334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54761.642560633969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53383.673936791383</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53788.152544115859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54242.915010694654</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54584.613147011485</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55144.683031134678</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55931.383182400568</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55092.324070182571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55810.32725196729</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56308.513833730256</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56995.46972113513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5873-40B4-B95B-FD22FF571635}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1605619072"/>
+        <c:axId val="1597335536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1605619072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597335536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1597335536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605619072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76933</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>115765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399317</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A5609CD-5DC0-432E-F5B3-67525CA8BE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,7 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1482F7EC-D512-4D3C-A0E5-D86E3932F98F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -599,22 +1644,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,23 +2282,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="B1" s="1" t="str" cm="1">
+        <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
+        <v>E&amp;P</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>Refino</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>Comercialização</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>Pertoquímica</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>Eólica</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>Fertilizantes</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,23 +2921,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="B1" s="1" t="str" cm="1">
+        <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
+        <v>E&amp;P</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>Refino</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>Comercialização</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>Pertoquímica</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>Eólica</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>Fertilizantes</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,13 +3560,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2893,40 +3940,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA401CBF-3FE6-418D-810B-8FDA9D905A6D}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2"/>
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="7.7109375" style="1"/>
+    <col min="3" max="3" width="7.7109375" style="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.7109375" style="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="str" cm="1">
+        <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
+        <v>E&amp;P</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>Refino</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>Comercialização</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>Pertoquímica</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>Eólica</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>Fertilizantes</v>
+      </c>
+      <c r="I1" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J1" s="1">
+        <f>_xlfn.XLOOKUP(Sim!B12,'Volume (mil m3)'!$A$2:$A$27,'Volume (mil m3)'!$B$2:$B$27)</f>
+        <v>43467.748810935482</v>
+      </c>
+      <c r="K1" s="5">
+        <f>I1-J1</f>
+        <v>6532.2511890645183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
@@ -2954,8 +4020,24 @@
         <f t="array" ref="G2:G27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!G11)/(Sim!G12-Sim!G11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!G10-Sim!G9)*'Demanda (mil m3)'!G2:G27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" cm="1">
+        <f t="array" ref="K2:K27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!B11)/(Sim!B12-Sim!B11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" cm="1">
+        <f t="array" ref="L2:L27">_xlfn.ANCHORARRAY(K2)*_xlfn.ANCHORARRAY(K1)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" cm="1">
+        <f t="array" ref="M2:M27">'Volume (mil m3)'!B2:B27</f>
+        <v>41613.257139380097</v>
+      </c>
+      <c r="N2" s="5" cm="1">
+        <f t="array" ref="N2:N27">_xlfn.ANCHORARRAY(M2)+_xlfn.ANCHORARRAY(L2)</f>
+        <v>41613.257139380097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2026</v>
       </c>
@@ -2977,8 +4059,21 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+      <c r="K3" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2177.4170630215058</v>
+      </c>
+      <c r="M3" s="5">
+        <v>41917.486089170379</v>
+      </c>
+      <c r="N3" s="5">
+        <v>44094.903152191888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2027</v>
       </c>
@@ -3000,8 +4095,21 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+      <c r="K4" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4354.8341260430116</v>
+      </c>
+      <c r="M4" s="5">
+        <v>42463.2120791165</v>
+      </c>
+      <c r="N4" s="5">
+        <v>46818.04620515951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2028</v>
       </c>
@@ -3023,8 +4131,21 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M5" s="5">
+        <v>43467.748810935482</v>
+      </c>
+      <c r="N5" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2029</v>
       </c>
@@ -3046,8 +4167,21 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M6" s="5">
+        <v>43956.664094868065</v>
+      </c>
+      <c r="N6" s="5">
+        <v>50488.915283932583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
@@ -3069,8 +4203,21 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M7" s="5">
+        <v>44568.001745658505</v>
+      </c>
+      <c r="N7" s="5">
+        <v>51100.252934723023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2031</v>
       </c>
@@ -3087,13 +4234,26 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>219.39655791826817</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M8" s="5">
+        <v>45183.736413831</v>
+      </c>
+      <c r="N8" s="5">
+        <v>51715.987602895519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2032</v>
       </c>
@@ -3110,13 +4270,26 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>448.76504885786483</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M9" s="5">
+        <v>45642.672239340638</v>
+      </c>
+      <c r="N9" s="5">
+        <v>52174.923428405156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2033</v>
       </c>
@@ -3133,13 +4306,26 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>633.05359545405327</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M10" s="5">
+        <v>46151.308336943614</v>
+      </c>
+      <c r="N10" s="5">
+        <v>52683.559526008132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2034</v>
       </c>
@@ -3156,13 +4342,26 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>811.79310472975021</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M11" s="5">
+        <v>46086.594201592503</v>
+      </c>
+      <c r="N11" s="5">
+        <v>52618.845390657021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
@@ -3179,13 +4378,26 @@
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>967.53530157047783</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M12" s="5">
+        <v>46642.125185254117</v>
+      </c>
+      <c r="N12" s="5">
+        <v>53174.376374318635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2036</v>
       </c>
@@ -3202,13 +4414,26 @@
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>934.20370723668043</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47205.043941645461</v>
+      </c>
+      <c r="N13" s="5">
+        <v>53737.295130709979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2037</v>
       </c>
@@ -3225,13 +4450,26 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>900.12205613869094</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47578.40907071421</v>
+      </c>
+      <c r="N14" s="5">
+        <v>54110.660259778728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2038</v>
       </c>
@@ -3248,13 +4486,26 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>218.97213271163469</v>
+        <v>875.88853084653874</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47550.55953089735</v>
+      </c>
+      <c r="N15" s="5">
+        <v>54082.810719961868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2039</v>
       </c>
@@ -3271,13 +4522,26 @@
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>426.8187702273957</v>
+        <v>853.63754045479141</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47887.816728432816</v>
+      </c>
+      <c r="N16" s="5">
+        <v>54420.067917497334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2040</v>
       </c>
@@ -3294,13 +4558,26 @@
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>627.58646361564502</v>
+        <v>836.78195148752673</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M17" s="5">
+        <v>48229.391371569451</v>
+      </c>
+      <c r="N17" s="5">
+        <v>54761.642560633969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2041</v>
       </c>
@@ -3322,8 +4599,21 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M18" s="5">
+        <v>46851.422747726865</v>
+      </c>
+      <c r="N18" s="5">
+        <v>53383.673936791383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2042</v>
       </c>
@@ -3345,8 +4635,21 @@
       <c r="G19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47255.901355051341</v>
+      </c>
+      <c r="N19" s="5">
+        <v>53788.152544115859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2043</v>
       </c>
@@ -3368,8 +4671,21 @@
       <c r="G20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47710.663821630136</v>
+      </c>
+      <c r="N20" s="5">
+        <v>54242.915010694654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2044</v>
       </c>
@@ -3391,8 +4707,21 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M21" s="5">
+        <v>48052.361957946967</v>
+      </c>
+      <c r="N21" s="5">
+        <v>54584.613147011485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2045</v>
       </c>
@@ -3414,8 +4743,21 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M22" s="5">
+        <v>48612.43184207016</v>
+      </c>
+      <c r="N22" s="5">
+        <v>55144.683031134678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2046</v>
       </c>
@@ -3437,8 +4779,21 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M23" s="5">
+        <v>49399.13199333605</v>
+      </c>
+      <c r="N23" s="5">
+        <v>55931.383182400568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2047</v>
       </c>
@@ -3460,8 +4815,21 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M24" s="5">
+        <v>48560.072881118052</v>
+      </c>
+      <c r="N24" s="5">
+        <v>55092.324070182571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2048</v>
       </c>
@@ -3483,8 +4851,21 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M25" s="5">
+        <v>49278.076062902772</v>
+      </c>
+      <c r="N25" s="5">
+        <v>55810.32725196729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2049</v>
       </c>
@@ -3506,8 +4887,21 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M26" s="5">
+        <v>49776.262644665738</v>
+      </c>
+      <c r="N26" s="5">
+        <v>56308.513833730256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2050</v>
       </c>
@@ -3528,6 +4922,19 @@
       </c>
       <c r="G27" s="4">
         <v>0</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>6532.2511890645183</v>
+      </c>
+      <c r="M27" s="5">
+        <v>50463.218532070612</v>
+      </c>
+      <c r="N27" s="5">
+        <v>56995.46972113513</v>
       </c>
     </row>
   </sheetData>
@@ -3535,6 +4942,7 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3542,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082DEB08-9530-4F78-84F1-21D50050C17D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3553,28 +4961,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="B1" s="1" t="str" cm="1">
+        <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
+        <v>E&amp;P</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>Refino</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>Comercialização</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>Pertoquímica</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>Eólica</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>Fertilizantes</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>278.61022865490668</v>
@@ -3594,13 +5003,11 @@
       <c r="G2" s="6">
         <v>279.45612042703505</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>83.583068596472003</v>
@@ -3620,10 +5027,11 @@
       <c r="G3" s="6">
         <v>83.836836128110505</v>
       </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>5</v>
@@ -3646,7 +5054,7 @@
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
@@ -3669,7 +5077,7 @@
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>0.1</v>
@@ -3692,7 +5100,7 @@
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>0.34</v>
@@ -3715,7 +5123,7 @@
     </row>
     <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" cm="1">
         <f t="array" ref="B9">AVERAGE('Volume (mil m3)'!B2:B27/'Demanda (mil m3)'!B2:B27)</f>
@@ -3744,7 +5152,7 @@
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9">
         <v>0.9</v>
@@ -3767,7 +5175,7 @@
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="10">
         <v>2025</v>
@@ -3782,7 +5190,7 @@
         <v>2038</v>
       </c>
       <c r="F11" s="10">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="G11" s="10">
         <v>2030</v>
@@ -3790,7 +5198,7 @@
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12" s="10">
         <v>2028</v>
@@ -3805,7 +5213,8 @@
         <v>2043</v>
       </c>
       <c r="F12" s="10">
-        <v>2041</v>
+        <f>F11+5</f>
+        <v>2035</v>
       </c>
       <c r="G12" s="10">
         <v>2035</v>
@@ -3823,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4650035-0809-4929-BA00-4DCC0C21969B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3835,26 +5244,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/simulador_mq_v0.3.xlsx
+++ b/simulador_mq_v0.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/yuritelles_petrobras_com_br/Documents/Documentos/git_simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{A69756E9-B100-4F2F-9EF1-63B9807E025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C05046-4CAA-412E-BC86-57429B0D2641}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{A69756E9-B100-4F2F-9EF1-63B9807E025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69996E9-B7F2-4F98-B176-67B4575AD4B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{AAE49CED-2ACB-46D0-84E0-362A500CFA6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{AAE49CED-2ACB-46D0-84E0-362A500CFA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Preço (US$_m3)" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,8 @@
     <sheet name="Financ_PE" sheetId="13" r:id="rId4"/>
     <sheet name="Volume_add" sheetId="8" r:id="rId5"/>
     <sheet name="Sim" sheetId="4" r:id="rId6"/>
-    <sheet name="FCO" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,63 +63,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>Opex</t>
-  </si>
-  <si>
-    <t>Capex</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Início</t>
-  </si>
-  <si>
-    <t>Fim</t>
-  </si>
-  <si>
-    <t>Atual</t>
-  </si>
-  <si>
-    <t>Alvo</t>
-  </si>
-  <si>
-    <t>Receita</t>
-  </si>
-  <si>
-    <t>Tributos</t>
-  </si>
-  <si>
-    <t>FCO</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>FCL</t>
-  </si>
-  <si>
-    <t>CO2/Rec</t>
-  </si>
-  <si>
-    <t>Caixa</t>
-  </si>
-  <si>
-    <t>Dívida</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>E&amp;P</t>
   </si>
   <si>
     <t>Refino</t>
+  </si>
+  <si>
+    <t>Comercialização</t>
   </si>
   <si>
     <t>Pertoquímica</t>
@@ -132,7 +83,31 @@
     <t>Fertilizantes</t>
   </si>
   <si>
-    <t>Comercialização</t>
+    <t>FCO</t>
+  </si>
+  <si>
+    <t>Caixa</t>
+  </si>
+  <si>
+    <t>Dívida</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Capital Empregado</t>
+  </si>
+  <si>
+    <t>Opex unitário</t>
+  </si>
+  <si>
+    <t>Capex unitário</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>CO2/Rec</t>
   </si>
 </sst>
 </file>
@@ -143,7 +118,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,13 +167,8 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,38 +191,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,20 +220,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="3" builtinId="10"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -338,7 +282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -479,82 +423,82 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>41613.257139380097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44094.903152191888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46818.04620515951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50488.915283932583</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51100.252934723023</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51715.987602895519</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52174.923428405156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52683.559526008132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52618.845390657021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53174.376374318635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53737.295130709979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54110.660259778728</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54082.810719961868</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54420.067917497334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54761.642560633969</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53383.673936791383</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53788.152544115859</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54242.915010694654</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54584.613147011485</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55144.683031134678</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55931.383182400568</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55092.324070182571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55810.32725196729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56308.513833730256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56995.46972113513</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +562,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1597335536"/>
@@ -677,7 +621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1605619072"/>
@@ -725,7 +669,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1334,7 +1278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1636,627 +1580,627 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2"/>
     <col min="2" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>642.47434345238094</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>543.89301712301585</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>347.07790944444446</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>465.19864484126981</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>529.21844349206344</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>649.89430043650793</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>2026</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>621.81655687872762</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>529.65636838966202</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>349.82451765407552</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>451.40796349900597</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>512.42856656063611</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>628.45961027832993</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="1">
         <v>2027</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>603.23448696266769</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>531.14086019884564</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>354.19907195719759</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>437.52859111942132</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>496.37553197845995</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>609.10164125196138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>2028</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>584.78123463734835</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>515.16947477749159</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>345.39994951504508</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>421.14999780513506</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>479.92439017804975</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>589.27515622877263</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="1">
         <v>2029</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>567.74193221833821</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>500.06517903817615</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>335.88265762555062</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>405.36949796280101</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>462.52579346736934</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>571.26662454233929</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>551.08798589801154</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>497.21339505566795</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>326.25301771585151</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>389.11526232340202</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>446.10625518592093</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>553.98768420890417</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="1">
         <v>2031</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>550.44822269183032</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>498.97752588058842</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>327.69875565204472</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>390.19413113558232</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>445.99189171459813</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>552.91158234397096</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>2032</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>550.54805200965757</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>500.05889596691998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>328.17356824462217</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>391.88402087366217</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>443.80107974739326</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>552.67084533799732</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="1">
         <v>2033</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>549.23885098258472</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>500.23384867845374</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>328.54971139358003</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>392.77858824419263</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>441.69113006103538</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>551.06028712368027</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>2034</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>547.93801335004173</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>500.14942272916483</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>329.42284726233498</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>393.35884532627915</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>439.46974841167162</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>549.58007451362016</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>547.67671884756271</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>501.21158986614904</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>330.29252781894053</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>394.45298482436431</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>437.53548202176262</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>549.20177199281306</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>2036</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>546.07272317970137</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>501.53006295092604</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>331.23914214092645</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>395.42821163162</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>436.17189240251628</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>547.40415480152228</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>2037</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>544.56799704222976</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>502.16690663907627</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>332.20676431630693</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>396.60911151334471</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>435.30889649774974</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>545.70077018984591</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>2038</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>544.77815673279554</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>502.01556289298708</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>333.05310975625019</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>397.34389329939381</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>434.38235962641789</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>545.47668171544512</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>2039</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>546.17617532211716</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>501.45401335778052</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>333.33451960440658</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>397.12605022622802</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>433.84103649959621</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>546.74349950096268</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>2040</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>544.65492494232524</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>500.88210113846429</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>333.66594599200147</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>396.84238860866253</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>433.48576369499841</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>545.00929367197261</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>2041</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>543.30110581202689</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>500.24658880478216</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>333.93892004808163</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>396.61670651809021</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>433.38811348992346</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>543.56422529049314</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>2042</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>543.47333409434941</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>499.52003346794612</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>334.27009145460102</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>396.26462126455385</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>433.40988028432923</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>543.71314999029721</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="1">
         <v>2043</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>543.73675720804738</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>498.84508189950157</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>334.53346574331977</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>395.97365479329903</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>433.30476294583269</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>543.88711661794503</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="1">
         <v>2044</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>543.90700935157611</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>498.16938723634991</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>334.8005744747403</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>395.67996288977832</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>433.32829969152232</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>543.96355446721668</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="1">
         <v>2045</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>544.22995703929143</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>497.48625228005812</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>335.06893894401645</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>395.32155748830422</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>433.28919038812109</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>544.25324121990991</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="1">
         <v>2046</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>544.51988509768216</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>496.89317873959459</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>335.34180792973751</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>395.0239698446602</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>433.25288103220868</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>544.44319707876934</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="1">
         <v>2047</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>544.83566677667409</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>496.23549697026112</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>335.61713325316754</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>394.66183012428723</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>433.21786958817057</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>544.65611273305933</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="1">
         <v>2048</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>545.11833902039189</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>495.62603408173078</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>335.89981329985164</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>394.29729843100068</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>433.25027540103929</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>544.89541245006444</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="1">
         <v>2049</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>545.55036067527919</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>495.0803842983027</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>336.18601512656596</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>393.99454662719347</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>433.15818041812321</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>545.2190119877057</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="1">
         <v>2050</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>545.82309983150935</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>494.43596344646966</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>336.48067462057179</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>393.62626318758583</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>433.19754690391113</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>545.37926223171678</v>
       </c>
     </row>
@@ -2266,6 +2210,9 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2275,13 +2222,13 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2"/>
     <col min="2" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="1" t="str" cm="1">
         <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
         <v>E&amp;P</v>
@@ -2302,601 +2249,601 @@
         <v>Fertilizantes</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>59508.188438999983</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>32799.779484599996</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>24910.248662499998</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>120.89835899999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>1168.2271436000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>7334.7682167000003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>2026</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>59943.244834899997</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>32650.314949000003</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>25159.105979599997</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>123.9197805</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1160.7679777999997</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>7689.6287584000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="1">
         <v>2027</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>60723.649140599991</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>32414.329535000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>25282.766244400002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>127.08833820000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1204.6079061</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>7824.2044137000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>2028</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>62160.166376700006</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>32099.199241100003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>25320.406174600004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>130.3461752</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1250.7204230999998</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>7709.7384219000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="1">
         <v>2029</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>62859.329692599975</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>31822.1262671</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>25341.90405669999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>133.758216</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1332.1463813</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>7701.1909284000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>63733.560613799986</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>31479.258468100001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>25348.270547699994</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>137.12207190000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1342.1723389999997</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>7740.989949400001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="1">
         <v>2031</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>64614.079399899987</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>31031.648916500002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>25336.692023399999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>140.37873620000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1389.1277629000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>7880.3334191999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>2032</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>65270.371203599978</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>30644.797349100001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>25311.996602400006</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>144.70738179999998</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1420.6968293000004</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>8085.2297773</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="1">
         <v>2033</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>65997.73586630002</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>30262.004410500002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>25291.040005400006</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>149.13063789999998</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1336.0773647999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>8375.4576732000005</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>2034</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>65905.192738800004</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>29847.745187000004</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>25271.772874000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>153.65323239999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1284.9840833999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>8527.8408996999988</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>66699.618475499999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>29559.290132300001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>25257.9886582</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>158.30864220000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1225.2062309000005</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>8825.0942627000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>2036</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>67504.608945700005</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>29157.429373899999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>25224.170117499998</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>163.12924959999998</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1182.9978722000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>9129.3542955999983</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>2037</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>68038.53212269998</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>28669.009122499996</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>25208.490902500005</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>168.0687714</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1139.839704</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>9148.8448804</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>2038</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>67998.70645709995</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>28093.915271999995</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>25195.770863800004</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>173.08398060000002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1109.1523832000003</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>9386.7179752000011</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>2039</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>68480.994224099981</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>27576.065501199999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>25185.867889299992</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>178.17454329999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1080.9755797</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>9359.2597420000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>2040</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>68969.456065999955</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>26977.443614800002</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>25173.942820600001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>183.34985080000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>1059.6310638000004</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>9553.1896837999993</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>2041</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>66998.920179899986</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>26290.620606099998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>25310.610480899995</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>1060.5265735000003</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>9241.9221186000013</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>2042</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>67577.336550999942</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>25587.037861699995</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>25433.994812099994</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1061.1419136000002</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>8903.7428154999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="1">
         <v>2043</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>68227.660327999969</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>24843.312949800002</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>25554.204174300001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1061.7621996000003</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>8537.718881499999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="1">
         <v>2044</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>68716.298768799999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>24071.468759800006</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>25661.327298200002</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1062.3874682000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>8625.1905998000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="1">
         <v>2045</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>69517.215267399952</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>23268.0407729</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>25785.254122800008</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1063.0177566000002</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>8200.4620445</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="1">
         <v>2046</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>70642.219750699995</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>22485.573783400003</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>25896.164894899997</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1063.6531028999998</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>8246.0010349000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="1">
         <v>2047</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>69442.340404700008</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>21688.962997999995</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>26004.109886300008</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>1064.2935445000001</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>7785.2973528999992</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="1">
         <v>2048</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>70469.106189900049</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>20927.449475499998</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>26099.212119300002</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1064.9391202000002</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>7794.3707993999997</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="1">
         <v>2049</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>71181.527735900032</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>20172.486827300003</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>26211.2898713</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1065.5898670000004</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>7296.8923962000008</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="1">
         <v>2050</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>72163.894971900023</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>19444.781824099999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>26310.413429600001</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>188.47369060000003</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>1066.2458248</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>7269.0669643000001</v>
       </c>
     </row>
@@ -2905,6 +2852,9 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2912,15 +2862,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD6ABA-4A29-46E5-AEB6-34EBAD18FD2B}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2"/>
     <col min="2" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="1" t="str" cm="1">
         <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
         <v>E&amp;P</v>
@@ -2941,601 +2893,601 @@
         <v>Fertilizantes</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>41613.257139380097</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10488.634892303759</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>22835.222490236014</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>89.654084429055402</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>12.042330750719165</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>2772.7549006442068</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>2026</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>41917.486089170379</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>10440.839481240337</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>23063.349968259001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>91.894667183836759</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>11.965440103056887</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2906.9024669986102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="1">
         <v>2027</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>42463.2120791165</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>10365.376630994124</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>23176.709320795719</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>94.24436110775622</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>12.417351291363586</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2957.7759638448902</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>2028</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>43467.748810935482</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>10264.605020691886</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>23211.213841094945</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>96.660261504337285</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>12.892688801285624</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>2914.5045024512069</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="1">
         <v>2029</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>43956.664094868065</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10176.003288958438</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>23230.920947494131</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>99.190514160277644</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>13.732044679729738</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>2911.2733022564425</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>44568.001745658505</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>10066.361845736928</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>23236.757109165454</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>101.68503454384859</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>13.83539435738237</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>2926.3184853158527</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="1">
         <v>2031</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>45183.736413831</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>9923.2263358398432</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>23226.143077082463</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>104.10006530625365</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>14.319420728659392</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>2978.9943541839411</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>2032</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>45642.672239340638</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>9799.5198685485266</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>23203.504787089245</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>107.31004070456204</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>14.644841295338493</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>3056.4511141334106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="1">
         <v>2033</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>46151.308336943614</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9677.1112598500276</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>23184.293876687789</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>110.59017601095387</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>13.772566083244419</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>3166.1656677341839</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>2034</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>46086.594201592503</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>9544.6404379623145</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>23166.631699235102</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>113.94397727422314</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>13.245885807812433</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>3223.7709424437294</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>46642.125185254117</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>9452.3989717351287</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>23153.995709971761</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>117.39626981742511</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>12.629683149522567</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>3336.1413261614643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>2036</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>47205.043941645461</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>9323.8929013092311</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>23122.99425705001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>120.97106724572541</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>12.194590523319699</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>3451.160434109936</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>2037</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>47578.40907071421</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>9167.707043616283</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>23108.621122207078</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>124.6340475223755</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>11.749707061309056</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>3458.5284398769868</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>2038</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>47550.55953089735</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>8983.8049100810331</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>23096.960663986272</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>128.35315498392654</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>11.43337571346156</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>3548.4513617542448</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>2039</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>47887.816728432816</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>8818.2081511901833</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>23087.88260823955</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>132.12814202156861</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>11.142923305208662</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>3538.0713540404372</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>2040</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>48229.391371569451</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>8626.7822787101668</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>23076.950898939289</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>135.96597290189783</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>10.922899552473647</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>3611.38249089181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>2041</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>46851.422747726865</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>8407.1516626790381</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>23202.234129646997</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>10.932130654538817</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>3493.7143327004133</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>2042</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>47255.901355051341</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>8182.161658523627</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>23315.340533879822</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>10.938473709525148</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>3365.8727578525513</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="1">
         <v>2043</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>47710.663821630136</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>7944.3350882293862</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>23425.536444343728</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>10.944867747887434</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>3227.5051057649457</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="1">
         <v>2044</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>48052.361957946967</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>7697.5166025606977</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>23523.736201449654</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>10.951313147936977</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>3260.5719496540114</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="1">
         <v>2045</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>48612.43184207016</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>7440.5983259969998</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>23637.339909328723</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>10.957810293139197</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>3100.0122498300602</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="1">
         <v>2046</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>49399.13199333605</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>7190.3829069574031</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>23739.011803165726</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>10.964359576236886</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>3117.2273076303186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="1">
         <v>2047</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>48560.072881118052</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>6935.6446187547344</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>23837.964966127791</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>10.97096138275711</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>2943.067967584389</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="1">
         <v>2048</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>49278.076062902772</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>6692.1296491859675</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>23925.145173732155</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>10.977616112658414</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>2946.4979932519113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="1">
         <v>2049</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>49776.262644665738</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>6450.70950250436</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>24027.886837928316</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>10.984324147344568</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>2758.4367430958632</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="1">
         <v>2050</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>50463.218532070612</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>6218.0057402290313</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>24118.753394038289</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>139.76563709775473</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>10.991085898113145</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>2747.917923634383</v>
       </c>
     </row>
@@ -3544,397 +3496,567 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD173822-4CB5-461A-B74C-266924E3824E}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
-      <c r="B2" s="5">
-        <v>33.924537188599999</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8.3008799068000005</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
         <v>60.763708926099994</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="1">
         <v>2026</v>
       </c>
-      <c r="B3" s="5">
-        <v>37.559500544800002</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10.218291492200001</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
         <v>56.566441817800005</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>2027</v>
       </c>
-      <c r="B4" s="5">
-        <v>38.438154074799996</v>
-      </c>
-      <c r="C4" s="5">
-        <v>14.6282001801</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
         <v>52.796575731300003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="1">
         <v>2028</v>
       </c>
-      <c r="B5" s="5">
-        <v>39.3607814832</v>
-      </c>
-      <c r="C5" s="5">
-        <v>20.245682490099998</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
         <v>53.623841115399998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="1">
         <v>2029</v>
       </c>
-      <c r="B6" s="5">
-        <v>40.644972471100004</v>
-      </c>
-      <c r="C6" s="5">
-        <v>21.52421638989</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
         <v>50.004508623599996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
-      <c r="B7" s="5">
-        <v>42.4383820136133</v>
-      </c>
-      <c r="C7" s="5">
-        <v>24.60608491524</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
         <v>49.0711329715067</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="1">
         <v>2031</v>
       </c>
-      <c r="B8" s="5">
-        <v>43.911231768279102</v>
-      </c>
-      <c r="C8" s="5">
-        <v>27.68795344059</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
         <v>47.335783464003804</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="1">
         <v>2032</v>
       </c>
-      <c r="B9" s="5">
-        <v>45.384081522944697</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30.76982196594</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
         <v>45.6004339565009</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="1">
         <v>2033</v>
       </c>
-      <c r="B10" s="5">
-        <v>46.8569312776104</v>
-      </c>
-      <c r="C10" s="5">
-        <v>33.85169049129</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
         <v>43.865084448998097</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="1">
         <v>2034</v>
       </c>
-      <c r="B11" s="5">
-        <v>48.329781032276301</v>
-      </c>
-      <c r="C11" s="5">
-        <v>36.933559016639997</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
         <v>42.129734941495201</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
-      <c r="B12" s="5">
-        <v>49.802630786941897</v>
-      </c>
-      <c r="C12" s="5">
-        <v>40.01542754199</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
         <v>40.394385433992397</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="1">
         <v>2036</v>
       </c>
-      <c r="B13" s="5">
-        <v>51.2754805416076</v>
-      </c>
-      <c r="C13" s="5">
-        <v>43.097296067339997</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
         <v>38.659035926489501</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="1">
         <v>2037</v>
       </c>
-      <c r="B14" s="5">
-        <v>52.748330296273402</v>
-      </c>
-      <c r="C14" s="5">
-        <v>46.17916459269</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
         <v>36.923686418986698</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="1">
         <v>2038</v>
       </c>
-      <c r="B15" s="5">
-        <v>54.221180050939097</v>
-      </c>
-      <c r="C15" s="5">
-        <v>49.261033118039997</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
         <v>35.188336911483802</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
       <c r="A16" s="1">
         <v>2039</v>
       </c>
-      <c r="B16" s="5">
-        <v>55.6940298056047</v>
-      </c>
-      <c r="C16" s="5">
-        <v>52.34290164339</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
         <v>33.452987403980998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="1">
         <v>2040</v>
       </c>
-      <c r="B17" s="5">
-        <v>57.166879560270502</v>
-      </c>
-      <c r="C17" s="5">
-        <v>55.424770168739997</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
         <v>31.717637896478099</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="1">
         <v>2041</v>
       </c>
-      <c r="B18" s="5">
-        <v>58.639729314936197</v>
-      </c>
-      <c r="C18" s="5">
-        <v>58.50663869409</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4">
         <v>29.982288388975199</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="1">
         <v>2042</v>
       </c>
-      <c r="B19" s="5">
-        <v>60.1125790696019</v>
-      </c>
-      <c r="C19" s="5">
-        <v>61.588507219439997</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
         <v>28.246938881472399</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="1">
         <v>2043</v>
       </c>
-      <c r="B20" s="5">
-        <v>61.585428824267701</v>
-      </c>
-      <c r="C20" s="5">
-        <v>64.670375744789993</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
         <v>26.5115893739695</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="1">
         <v>2044</v>
       </c>
-      <c r="B21" s="5">
-        <v>63.058278578933397</v>
-      </c>
-      <c r="C21" s="5">
-        <v>67.752244270139997</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4">
         <v>24.7762398664667</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="1">
         <v>2045</v>
       </c>
-      <c r="B22" s="5">
-        <v>64.531128333599</v>
-      </c>
-      <c r="C22" s="5">
-        <v>70.83411279549</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4">
         <v>23.0408903589638</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="1">
         <v>2046</v>
       </c>
-      <c r="B23" s="5">
-        <v>66.003978088264702</v>
-      </c>
-      <c r="C23" s="5">
-        <v>73.915981320840004</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4">
         <v>21.305540851461</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="1">
         <v>2047</v>
       </c>
-      <c r="B24" s="5">
-        <v>67.476827842930504</v>
-      </c>
-      <c r="C24" s="5">
-        <v>76.997849846189993</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4">
         <v>19.570191343958101</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="1">
         <v>2048</v>
       </c>
-      <c r="B25" s="5">
-        <v>68.949677597596207</v>
-      </c>
-      <c r="C25" s="5">
-        <v>80.079718371539997</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4">
         <v>17.834841836455201</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="1">
         <v>2049</v>
       </c>
-      <c r="B26" s="5">
-        <v>70.422527352261994</v>
-      </c>
-      <c r="C26" s="5">
-        <v>83.16158689689</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
         <v>16.099492328952401</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="1">
         <v>2050</v>
       </c>
-      <c r="B27" s="5">
-        <v>71.895377106927597</v>
-      </c>
-      <c r="C27" s="5">
-        <v>86.243455422240004</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4">
         <v>14.3641428214495</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -3942,11 +4064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA401CBF-3FE6-418D-810B-8FDA9D905A6D}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2"/>
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
@@ -3960,7 +4082,7 @@
     <col min="14" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="1" t="str" cm="1">
         <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
         <v>E&amp;P</v>
@@ -3983,958 +4105,958 @@
       <c r="I1" s="1">
         <v>50000</v>
       </c>
-      <c r="J1" s="1">
-        <f>_xlfn.XLOOKUP(Sim!B12,'Volume (mil m3)'!$A$2:$A$27,'Volume (mil m3)'!$B$2:$B$27)</f>
-        <v>43467.748810935482</v>
-      </c>
-      <c r="K1" s="5">
+      <c r="J1" s="1" t="e">
+        <f>_xlfn.XLOOKUP(Sim!#REF!,'Volume (mil m3)'!$A$2:$A$27,'Volume (mil m3)'!$B$2:$B$27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="4" t="e">
         <f>I1-J1</f>
-        <v>6532.2511890645183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
-      <c r="B2" s="4" cm="1">
-        <f t="array" ref="B2:B27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!B11)/(Sim!B12-Sim!B11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!B10-Sim!B9)*'Demanda (mil m3)'!B2:B27</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2:C27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!C11)/(Sim!C12-Sim!C11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!C10-Sim!C9)*'Demanda (mil m3)'!C2:C27</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" cm="1">
-        <f t="array" ref="D2:D27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!D11)/(Sim!D12-Sim!D11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!D10-Sim!D9)*'Demanda (mil m3)'!D2:D27</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" cm="1">
-        <f t="array" ref="E2:E27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!E11)/(Sim!E12-Sim!E11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!E10-Sim!E9)*'Demanda (mil m3)'!E2:E27</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" cm="1">
-        <f t="array" ref="F2:F27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!F11)/(Sim!F12-Sim!F11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!F10-Sim!F9)*'Demanda (mil m3)'!F2:F27</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" cm="1">
-        <f t="array" ref="G2:G27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!G11)/(Sim!G12-Sim!G11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!G10-Sim!G9)*'Demanda (mil m3)'!G2:G27</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" cm="1">
-        <f t="array" ref="K2:K27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!B11)/(Sim!B12-Sim!B11),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" cm="1">
+      <c r="B2" s="3" t="e" cm="1">
+        <f t="array" ref="B2:B27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!#REF!-Sim!#REF!)*'Demanda (mil m3)'!B2:B27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="3" t="e" cm="1">
+        <f t="array" ref="C2:C27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!#REF!-Sim!#REF!)*'Demanda (mil m3)'!C2:C27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="3" t="e" cm="1">
+        <f t="array" ref="D2:D27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!#REF!-Sim!#REF!)*'Demanda (mil m3)'!D2:D27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="3" t="e" cm="1">
+        <f t="array" ref="E2:E27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!#REF!-Sim!#REF!)*'Demanda (mil m3)'!E2:E27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="3" t="e" cm="1">
+        <f t="array" ref="F2:F27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!#REF!-Sim!#REF!)*'Demanda (mil m3)'!F2:F27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="3" t="e" cm="1">
+        <f t="array" ref="G2:G27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)*(Sim!#REF!-Sim!#REF!)*'Demanda (mil m3)'!G2:G27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K2" s="4" t="e" cm="1">
+        <f t="array" ref="K2:K27">_xlfn.LET(_xlpm.x,($A2:$A27-Sim!#REF!)/(Sim!#REF!-Sim!#REF!),(_xlpm.x&gt;1)*(1-_xlpm.x)+(_xlpm.x&gt;0)*_xlpm.x)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="4" t="e" cm="1">
         <f t="array" ref="L2:L27">_xlfn.ANCHORARRAY(K2)*_xlfn.ANCHORARRAY(K1)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" cm="1">
+        <v>#REF!</v>
+      </c>
+      <c r="M2" s="4" cm="1">
         <f t="array" ref="M2:M27">'Volume (mil m3)'!B2:B27</f>
         <v>41613.257139380097</v>
       </c>
-      <c r="N2" s="5" cm="1">
+      <c r="N2" s="4" t="e" cm="1">
         <f t="array" ref="N2:N27">_xlfn.ANCHORARRAY(M2)+_xlfn.ANCHORARRAY(L2)</f>
-        <v>41613.257139380097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>2026</v>
       </c>
-      <c r="B3" s="4">
-        <v>4010.478087413203</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="K3" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2177.4170630215058</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="B3" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="K3" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M3" s="4">
         <v>41917.486089170379</v>
       </c>
-      <c r="N3" s="5">
-        <v>44094.903152191888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="1">
         <v>2027</v>
       </c>
-      <c r="B4" s="4">
-        <v>8125.3814316156586</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6162.3270217529343</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L4" s="5">
-        <v>4354.8341260430116</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="B4" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="K4" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M4" s="4">
         <v>42463.2120791165</v>
       </c>
-      <c r="N4" s="5">
-        <v>46818.04620515951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>2028</v>
       </c>
-      <c r="B5" s="4">
-        <v>12476.400928094516</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12204.834448078107</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="B5" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="K5" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="4">
         <v>43467.748810935482</v>
       </c>
-      <c r="N5" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="1">
         <v>2029</v>
       </c>
-      <c r="B6" s="4">
-        <v>12616.732628471909</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12099.485098011555</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="B6" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="K6" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="4">
         <v>43956.664094868065</v>
       </c>
-      <c r="N6" s="5">
-        <v>50488.915283932583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
-      <c r="B7" s="4">
-        <v>12792.202806761476</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11969.119081933064</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="B7" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="K7" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="4">
         <v>44568.001745658505</v>
       </c>
-      <c r="N7" s="5">
-        <v>51100.252934723023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="1">
         <v>2031</v>
       </c>
-      <c r="B8" s="4">
-        <v>12968.935046078979</v>
-      </c>
-      <c r="C8" s="4">
-        <v>11798.92790571015</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>219.39655791826817</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="B8" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="K8" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="4">
         <v>45183.736413831</v>
       </c>
-      <c r="N8" s="5">
-        <v>51715.987602895519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>2032</v>
       </c>
-      <c r="B9" s="4">
-        <v>13100.661843899337</v>
-      </c>
-      <c r="C9" s="4">
-        <v>11651.838275821467</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>448.76504885786483</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M9" s="5">
+      <c r="B9" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="4">
         <v>45642.672239340638</v>
       </c>
-      <c r="N9" s="5">
-        <v>52174.923428405156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="1">
         <v>2033</v>
       </c>
-      <c r="B10" s="4">
-        <v>13246.653942726402</v>
-      </c>
-      <c r="C10" s="4">
-        <v>11506.291827499965</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>633.05359545405327</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="B10" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="K10" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="4">
         <v>46151.308336943614</v>
       </c>
-      <c r="N10" s="5">
-        <v>52683.559526008132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>2034</v>
       </c>
-      <c r="B11" s="4">
-        <v>13228.079263327494</v>
-      </c>
-      <c r="C11" s="4">
-        <v>11348.78119293768</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>811.79310472975021</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="B11" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="K11" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M11" s="4">
         <v>46086.594201592503</v>
       </c>
-      <c r="N11" s="5">
-        <v>52618.845390657021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
-      <c r="B12" s="4">
-        <v>13387.531442695876</v>
-      </c>
-      <c r="C12" s="4">
-        <v>11239.104120874863</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>967.53530157047783</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="B12" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="K12" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M12" s="4">
         <v>46642.125185254117</v>
       </c>
-      <c r="N12" s="5">
-        <v>53174.376374318635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="1">
         <v>2036</v>
       </c>
-      <c r="B13" s="4">
-        <v>13549.10410948454</v>
-      </c>
-      <c r="C13" s="4">
-        <v>11086.30766042076</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>934.20370723668043</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="B13" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="K13" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="4">
         <v>47205.043941645461</v>
       </c>
-      <c r="N13" s="5">
-        <v>53737.295130709979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="1">
         <v>2037</v>
       </c>
-      <c r="B14" s="4">
-        <v>13656.269839715769</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10900.599342133706</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>900.12205613869094</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M14" s="5">
+      <c r="B14" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="K14" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="4">
         <v>47578.40907071421</v>
       </c>
-      <c r="N14" s="5">
-        <v>54110.660259778728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="1">
         <v>2038</v>
       </c>
-      <c r="B15" s="4">
-        <v>13648.276280492599</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10681.935780318956</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>875.88853084653874</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="B15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="K15" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="4">
         <v>47550.55953089735</v>
       </c>
-      <c r="N15" s="5">
-        <v>54082.810719961868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="1">
         <v>2039</v>
       </c>
-      <c r="B16" s="4">
-        <v>13745.078073257158</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10485.037699649807</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>853.63754045479141</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="B16" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="K16" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M16" s="4">
         <v>47887.816728432816</v>
       </c>
-      <c r="N16" s="5">
-        <v>54420.067917497334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="1">
         <v>2040</v>
       </c>
-      <c r="B17" s="4">
-        <v>13843.119087830504</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10257.428251649826</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>836.78195148752673</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M17" s="5">
+      <c r="B17" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="K17" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="4">
         <v>48229.391371569451</v>
       </c>
-      <c r="N17" s="5">
-        <v>54761.642560633969</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="1">
         <v>2041</v>
       </c>
-      <c r="B18" s="4">
-        <v>13447.605414183119</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9996.2827615909537</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>837.48912814546145</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="B18" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="K18" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="4">
         <v>46851.422747726865</v>
       </c>
-      <c r="N18" s="5">
-        <v>53383.673936791383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="1">
         <v>2042</v>
       </c>
-      <c r="B19" s="4">
-        <v>13563.701540848599</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9728.7648446663625</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>837.975057170475</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="B19" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="K19" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="4">
         <v>47255.901355051341</v>
       </c>
-      <c r="N19" s="5">
-        <v>53788.152544115859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="1">
         <v>2043</v>
       </c>
-      <c r="B20" s="4">
-        <v>13694.230473569833</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9445.9839766306086</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>838.46489193211278</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="B20" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="K20" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="4">
         <v>47710.663821630136</v>
       </c>
-      <c r="N20" s="5">
-        <v>54242.915010694654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="1">
         <v>2044</v>
       </c>
-      <c r="B21" s="4">
-        <v>13792.306933973025</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9152.5115292992996</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>838.95866141206307</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="B21" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="K21" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="4">
         <v>48052.361957946967</v>
       </c>
-      <c r="N21" s="5">
-        <v>54584.613147011485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="1">
         <v>2045</v>
       </c>
-      <c r="B22" s="4">
-        <v>13953.061898589789</v>
-      </c>
-      <c r="C22" s="4">
-        <v>8847.0302150329935</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>839.45639498686103</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M22" s="5">
+      <c r="B22" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="K22" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="4">
         <v>48612.43184207016</v>
       </c>
-      <c r="N22" s="5">
-        <v>55144.683031134678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="1">
         <v>2046</v>
       </c>
-      <c r="B23" s="4">
-        <v>14178.865782293942</v>
-      </c>
-      <c r="C23" s="4">
-        <v>8549.5187414225929</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>839.95812274376294</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M23" s="5">
+      <c r="B23" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="K23" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="4">
         <v>49399.13199333605</v>
       </c>
-      <c r="N23" s="5">
-        <v>55931.383182400568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="1">
         <v>2047</v>
       </c>
-      <c r="B24" s="4">
-        <v>13938.033483111953</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8246.6294798452564</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>840.46387421724296</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="B24" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="K24" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M24" s="4">
         <v>48560.072881118052</v>
       </c>
-      <c r="N24" s="5">
-        <v>55092.324070182571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="1">
         <v>2048</v>
       </c>
-      <c r="B25" s="4">
-        <v>14144.119508007267</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7957.0849836640245</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>840.97368004734176</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="B25" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="K25" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L25" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M25" s="4">
         <v>49278.076062902772</v>
       </c>
-      <c r="N25" s="5">
-        <v>55810.32725196729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="1">
         <v>2049</v>
       </c>
-      <c r="B26" s="4">
-        <v>14287.112317644283</v>
-      </c>
-      <c r="C26" s="4">
-        <v>7670.0312766056368</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>841.48756945265575</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="K26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M26" s="5">
+      <c r="B26" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="K26" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L26" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M26" s="4">
         <v>49776.262644665738</v>
       </c>
-      <c r="N26" s="5">
-        <v>56308.513833730256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="1">
         <v>2050</v>
       </c>
-      <c r="B27" s="4">
-        <v>14484.286942639399</v>
-      </c>
-      <c r="C27" s="4">
-        <v>7393.3415366409627</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>842.00557394188695</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5">
-        <v>6532.2511890645183</v>
-      </c>
-      <c r="M27" s="5">
+      <c r="B27" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="K27" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="4">
         <v>50463.218532070612</v>
       </c>
-      <c r="N27" s="5">
-        <v>56995.46972113513</v>
+      <c r="N27" s="4" t="e">
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4942,25 +5064,33 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082DEB08-9530-4F78-84F1-21D50050C17D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="7.7109375" style="1"/>
+    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="1" t="str" cm="1">
         <f t="array" ref="B1:G1">'Preço (US$_m3)'!B1:G1</f>
         <v>E&amp;P</v>
@@ -4981,243 +5111,98 @@
         <v>Fertilizantes</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
         <v>278.61022865490668</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>251.89147357516089</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>167.66175867285062</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>201.29324220005989</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>223.86644734006575</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>279.45612042703505</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>83.583068596472003</v>
+      </c>
+      <c r="C3" s="5">
+        <v>75.567442072548261</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50.298527601855184</v>
+      </c>
+      <c r="E3" s="5">
+        <v>60.387972660017965</v>
+      </c>
+      <c r="F3" s="5">
+        <v>67.159934202019727</v>
+      </c>
+      <c r="G3" s="5">
+        <v>83.836836128110505</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>83.583068596472003</v>
-      </c>
-      <c r="C3" s="6">
-        <v>75.567442072548261</v>
-      </c>
-      <c r="D3" s="6">
-        <v>50.298527601855184</v>
-      </c>
-      <c r="E3" s="6">
-        <v>60.387972660017965</v>
-      </c>
-      <c r="F3" s="6">
-        <v>67.159934202019727</v>
-      </c>
-      <c r="G3" s="6">
-        <v>83.836836128110505</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" cm="1">
-        <f t="array" ref="B9">AVERAGE('Volume (mil m3)'!B2:B27/'Demanda (mil m3)'!B2:B27)</f>
-        <v>0.69928623658299693</v>
-      </c>
-      <c r="C9" s="3" cm="1">
-        <f t="array" ref="C9">AVERAGE('Volume (mil m3)'!C2:C27/'Demanda (mil m3)'!C2:C27)</f>
-        <v>0.31977760390823184</v>
-      </c>
-      <c r="D9" s="3" cm="1">
-        <f t="array" ref="D9">AVERAGE('Volume (mil m3)'!D2:D27/'Demanda (mil m3)'!D2:D27)</f>
-        <v>0.91669990129854662</v>
-      </c>
-      <c r="E9" s="3" cm="1">
-        <f t="array" ref="E9">AVERAGE('Volume (mil m3)'!E2:E27/'Demanda (mil m3)'!E2:E27)</f>
-        <v>0.74156576789479334</v>
-      </c>
-      <c r="F9" s="3" cm="1">
-        <f t="array" ref="F9">AVERAGE('Volume (mil m3)'!F2:F27/'Demanda (mil m3)'!F2:F27)</f>
-        <v>1.0308210022932363E-2</v>
-      </c>
-      <c r="G9" s="3" cm="1">
-        <f t="array" ref="G9">AVERAGE('Volume (mil m3)'!G2:G27/'Demanda (mil m3)'!G2:G27)</f>
-        <v>0.37802897361243443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.91669990129854662</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.74156576789479334</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.37802897361243443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2025</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2026</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2028</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2038</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2030</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2028</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2028</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2032</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2043</v>
-      </c>
-      <c r="F12" s="10">
-        <f>F11+5</f>
-        <v>2035</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -5225,838 +5210,8 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4650035-0809-4929-BA00-4DCC0C21969B}">
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
-    <col min="2" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="7.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="4" cm="1">
-        <f t="array" ref="B2:B27">_xlfn.ANCHORARRAY(Volume_add!B2)*'Preço (US$_m3)'!B2:B27/1000</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2:C27">_xlfn.ANCHORARRAY(Volume_add!B2)*Sim!B2/1000</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" cm="1">
-        <f t="array" ref="D2:D27">_xlfn.ANCHORARRAY(B2)*Sim!B6+(_xlfn.ANCHORARRAY(B2)-_xlfn.ANCHORARRAY(C2))*Sim!B7</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" cm="1">
-        <f t="array" ref="E2:E27">_xlfn.ANCHORARRAY(B2)-_xlfn.ANCHORARRAY(C2)-_xlfn.ANCHORARRAY(D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" cm="1">
-        <f t="array" ref="F2">IFERROR(_xlfn.XLOOKUP($A2+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1069.2115646975262</v>
-      </c>
-      <c r="G2" s="4" cm="1">
-        <f t="array" ref="G2:G27">_xlfn.ANCHORARRAY(E2)-F2:F27</f>
-        <v>-1069.2115646975262</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" cm="1">
-        <f t="array" ref="I2:I27">_xlfn.ANCHORARRAY(B2)/'Preço (US$_m3)'!B2:B27*'Preço (US$_m3)'!B2*Sim!B5/1000</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2026</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2493.7816757528626</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1117.3602169496853</v>
-      </c>
-      <c r="D3" s="4">
-        <v>717.36146356836662</v>
-      </c>
-      <c r="E3" s="4">
-        <v>659.05999523481069</v>
-      </c>
-      <c r="F3" s="4" cm="1">
-        <f t="array" ref="F3">IFERROR(_xlfn.XLOOKUP($A3+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1083.9833875796091</v>
-      </c>
-      <c r="G3" s="4">
-        <v>-424.92339234479846</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>12.883146380704787</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2027</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4901.5102992766588</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2263.8143785707716</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1386.9676429676676</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1250.7282777382195</v>
-      </c>
-      <c r="F4" s="4" cm="1">
-        <f t="array" ref="F4">IFERROR(_xlfn.XLOOKUP($A4+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1094.9935175578216</v>
-      </c>
-      <c r="G4" s="4">
-        <v>155.73476018039787</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>26.101745502887187</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2028</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7295.9651385616698</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3476.0529153667026</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2028.366669742456</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1791.5455534525113</v>
-      </c>
-      <c r="F5" s="4" cm="1">
-        <f t="array" ref="F5">IFERROR(_xlfn.XLOOKUP($A5+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1107.1959851686272</v>
-      </c>
-      <c r="G5" s="4">
-        <v>684.34956828388408</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>40.078837474631008</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7163.0481607707943</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3515.1507624963806</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1956.5899314903802</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1691.3074667840335</v>
-      </c>
-      <c r="F6" s="4" cm="1">
-        <f t="array" ref="F6">IFERROR(_xlfn.XLOOKUP($A6+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1105.6434564662709</v>
-      </c>
-      <c r="G6" s="4">
-        <v>585.66401031776263</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>40.529635059958608</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B7" s="4">
-        <v>7049.6292799770717</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3564.0385489917539</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1890.0637765327151</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1595.5269544526027</v>
-      </c>
-      <c r="F7" s="4" cm="1">
-        <f t="array" ref="F7">IFERROR(_xlfn.XLOOKUP($A7+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1118.9709589122754</v>
-      </c>
-      <c r="G7" s="4">
-        <v>476.55599554032733</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>41.093310497918921</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7138.7272463199643</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3613.2779585986973</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1912.5254824572271</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1612.9238052640399</v>
-      </c>
-      <c r="F8" s="4" cm="1">
-        <f t="array" ref="F8">IFERROR(_xlfn.XLOOKUP($A8+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1132.475698203787</v>
-      </c>
-      <c r="G8" s="4">
-        <v>480.44810706025282</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>41.661040145030825</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7212.5438581960289</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3649.9783918594057</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1932.526644374055</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1630.0388219625681</v>
-      </c>
-      <c r="F9" s="4" cm="1">
-        <f t="array" ref="F9">IFERROR(_xlfn.XLOOKUP($A9+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1141.4329387848948</v>
-      </c>
-      <c r="G9" s="4">
-        <v>488.60588317767338</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>42.084195584754426</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B10" s="4">
-        <v>7275.5769908669736</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3690.6532838954236</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1946.4317594570243</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1638.4919475145257</v>
-      </c>
-      <c r="F10" s="4" cm="1">
-        <f t="array" ref="F10">IFERROR(_xlfn.XLOOKUP($A10+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1140.7648125760145</v>
-      </c>
-      <c r="G10" s="4">
-        <v>497.7271349385112</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>42.55317647397019</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7248.1674719845505</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3685.4781882209027</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1936.1311036780953</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1626.5581800855525</v>
-      </c>
-      <c r="F11" s="4" cm="1">
-        <f t="array" ref="F11">IFERROR(_xlfn.XLOOKUP($A11+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1148.8558034609164</v>
-      </c>
-      <c r="G11" s="4">
-        <v>477.70237662463614</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>42.493507699211925</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B12" s="4">
-        <v>7332.0392940042548</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3729.9031963742505</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1957.9302025946272</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1644.2058950353771</v>
-      </c>
-      <c r="F12" s="4" cm="1">
-        <f t="array" ref="F12">IFERROR(_xlfn.XLOOKUP($A12+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1157.0503723072679</v>
-      </c>
-      <c r="G12" s="4">
-        <v>487.15552272810919</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
-        <v>43.005727370470694</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2036</v>
-      </c>
-      <c r="B13" s="4">
-        <v>7398.7961777115052</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3774.9189940126234</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1971.9978602287704</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1651.8793234701113</v>
-      </c>
-      <c r="F13" s="4" cm="1">
-        <f t="array" ref="F13">IFERROR(_xlfn.XLOOKUP($A13+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1123.9921257919559</v>
-      </c>
-      <c r="G13" s="4">
-        <v>527.88719767815542</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <v>43.524758835545178</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2037</v>
-      </c>
-      <c r="B14" s="4">
-        <v>7436.7675136822281</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3804.7764626163162</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1978.5537087306329</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1653.437342335279</v>
-      </c>
-      <c r="F14" s="4" cm="1">
-        <f t="array" ref="F14">IFERROR(_xlfn.XLOOKUP($A14+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1133.6957963108214</v>
-      </c>
-      <c r="G14" s="4">
-        <v>519.74154602445765</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <v>43.869014996399706</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2038</v>
-      </c>
-      <c r="B15" s="4">
-        <v>7435.282794666693</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3802.5493752533821</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1978.6576420671952</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1654.0757773461157</v>
-      </c>
-      <c r="F15" s="4" cm="1">
-        <f t="array" ref="F15">IFERROR(_xlfn.XLOOKUP($A15+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1144.6058050482845</v>
-      </c>
-      <c r="G15" s="4">
-        <v>509.46997229783119</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>43.843336712830933</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2039</v>
-      </c>
-      <c r="B16" s="4">
-        <v>7507.2341715554903</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3829.5193448697214</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2001.1464582287108</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1676.5683684570581</v>
-      </c>
-      <c r="F16" s="4" cm="1">
-        <f t="array" ref="F16">IFERROR(_xlfn.XLOOKUP($A16+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1152.8033365658639</v>
-      </c>
-      <c r="G16" s="4">
-        <v>523.76503189119421</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>44.154300054088054</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2040</v>
-      </c>
-      <c r="B17" s="4">
-        <v>7539.7229877499931</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3856.8345743575601</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2006.1543593284268</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1676.7340540640062</v>
-      </c>
-      <c r="F17" s="4" cm="1">
-        <f t="array" ref="F17">IFERROR(_xlfn.XLOOKUP($A17+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1166.2397298006501</v>
-      </c>
-      <c r="G17" s="4">
-        <v>510.49432426335602</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
-        <v>44.469244236435124</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2041</v>
-      </c>
-      <c r="B18" s="4">
-        <v>7306.0988920494883</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3746.64041930652</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1940.8257699375581</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1618.6327028054102</v>
-      </c>
-      <c r="F18" s="4" cm="1">
-        <f t="array" ref="F18">IFERROR(_xlfn.XLOOKUP($A18+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1185.1131113016443</v>
-      </c>
-      <c r="G18" s="4">
-        <v>433.51959150376592</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>43.198707297419908</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2042</v>
-      </c>
-      <c r="B19" s="4">
-        <v>7371.510099065652</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3778.9859877027379</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1958.6092077699559</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1633.9149035929581</v>
-      </c>
-      <c r="F19" s="4" cm="1">
-        <f t="array" ref="F19">IFERROR(_xlfn.XLOOKUP($A19+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1164.9836087188701</v>
-      </c>
-      <c r="G19" s="4">
-        <v>468.93129487408805</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>43.571651211203751</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2043</v>
-      </c>
-      <c r="B20" s="4">
-        <v>7446.0564701584835</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3815.3526834942818</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1979.044934481677</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1651.6588521825247</v>
-      </c>
-      <c r="F20" s="4" cm="1">
-        <f t="array" ref="F20">IFERROR(_xlfn.XLOOKUP($A20+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1182.2089110744691</v>
-      </c>
-      <c r="G20" s="4">
-        <v>469.44994110805555</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>43.99095866296183</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2044</v>
-      </c>
-      <c r="B21" s="4">
-        <v>7501.7324165162745</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3842.6777885528795</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1994.2518151591819</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1664.8028128042131</v>
-      </c>
-      <c r="F21" s="4" cm="1">
-        <f t="array" ref="F21">IFERROR(_xlfn.XLOOKUP($A21+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1194.1606888911622</v>
-      </c>
-      <c r="G21" s="4">
-        <v>470.64212391305091</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>44.306016710490205</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2045</v>
-      </c>
-      <c r="B22" s="4">
-        <v>7593.6742776360952</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3887.4657660021676</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2019.478321719145</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1686.7301899147826</v>
-      </c>
-      <c r="F22" s="4" cm="1">
-        <f t="array" ref="F22">IFERROR(_xlfn.XLOOKUP($A22+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>1210.6411490976127</v>
-      </c>
-      <c r="G22" s="4">
-        <v>476.08904081716992</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>44.822421412234533</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2046</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7720.674366590154</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3950.3770376721477</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2053.9685284911379</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1716.3288004268684</v>
-      </c>
-      <c r="F23" s="4" cm="1">
-        <f t="array" ref="F23">IFERROR(_xlfn.XLOOKUP($A23+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1716.3288004268684</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <v>45.547787421893652</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2047</v>
-      </c>
-      <c r="B24" s="4">
-        <v>7593.9377663269097</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3883.2786957295662</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2021.0178606357879</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1689.6412099615557</v>
-      </c>
-      <c r="F24" s="4" cm="1">
-        <f t="array" ref="F24">IFERROR(_xlfn.XLOOKUP($A24+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1689.6412099615557</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <v>44.774144555398273</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7710.2189331108439</v>
-      </c>
-      <c r="C25" s="4">
-        <v>3940.6963702482308</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2052.659564684373</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1716.8629981782401</v>
-      </c>
-      <c r="F25" s="4" cm="1">
-        <f t="array" ref="F25">IFERROR(_xlfn.XLOOKUP($A25+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1716.8629981782401</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
-        <v>45.436169473094907</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2049</v>
-      </c>
-      <c r="B26" s="4">
-        <v>7794.3392778990628</v>
-      </c>
-      <c r="C26" s="4">
-        <v>3980.5356296372074</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2076.1271681989374</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1737.676480062918</v>
-      </c>
-      <c r="F26" s="4" cm="1">
-        <f t="array" ref="F26">IFERROR(_xlfn.XLOOKUP($A26+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1737.676480062918</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
-        <v>45.895515530544671</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B27" s="4">
-        <v>7905.8583978804918</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4035.4704969920422</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2106.5177260901223</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1763.8701747983273</v>
-      </c>
-      <c r="F27" s="4" cm="1">
-        <f t="array" ref="F27">IFERROR(_xlfn.XLOOKUP($A27+Sim!B$4,$A$2:$A$27,_xlfn.ANCHORARRAY(Volume_add!B$2))*Sim!B$3/1000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1763.8701747983273</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
-        <v>46.528913719240705</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
-  </headerFooter>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>